--- a/invoices_functions/files/invoices/so_invoices5.xlsx
+++ b/invoices_functions/files/invoices/so_invoices5.xlsx
@@ -443,6993 +443,6993 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SO2996270</t>
+          <t>SO3092970</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SO2996209</t>
+          <t>SO3092976</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SO2996245</t>
+          <t>SO3092987</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SO2996269</t>
+          <t>SO3093087</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SO2996343</t>
+          <t>SO3093043</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SO2996385</t>
+          <t>SO3093070</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SO2996622</t>
+          <t>SO3093096</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SO2996413</t>
+          <t>SO3093082</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SO2996440</t>
+          <t>SO3094145</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SO2996400</t>
+          <t>SO3094307</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SO2996686</t>
+          <t>SO3093181</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SO2996401</t>
+          <t>SO3093122</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SO2996439</t>
+          <t>SO3093199</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SO2996417</t>
+          <t>SO3093253</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SO2996415</t>
+          <t>SO3093254</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SO2996583</t>
+          <t>SO3093314</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SO2996533</t>
+          <t>SO3093222</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>SO2996536</t>
+          <t>SO3093230</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SO2996498</t>
+          <t>SO3093315</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SO2996532</t>
+          <t>SO3093291</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>SO2996626</t>
+          <t>SO3093298</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SO2996620</t>
+          <t>SO3093268</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SO2996687</t>
+          <t>SO3093929</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SO2996665</t>
+          <t>SO3093379</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SO2996726</t>
+          <t>SO3093352</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>SO2996727</t>
+          <t>SO3093354</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>SO2996895</t>
+          <t>SO3093410</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SO2996751</t>
+          <t>SO3093384</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>SO2997310</t>
+          <t>SO3093385</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>SO2996975</t>
+          <t>SO3093341</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>SO2996870</t>
+          <t>SO3093488</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>SO2996869</t>
+          <t>SO3093364</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>SO2996772</t>
+          <t>SO3093743</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>SO2997006</t>
+          <t>SO3107973</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>SO2997131</t>
+          <t>SO3093520</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>SO2997009</t>
+          <t>SO3093458</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>SO2996974</t>
+          <t>SO3093460</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>SO2996829</t>
+          <t>SO3093435</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>SO2996865</t>
+          <t>SO3093477</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>SO2997005</t>
+          <t>SO3093443</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>SO2997067</t>
+          <t>SO3093494</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>SO2996864</t>
+          <t>SO3093487</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>SO2996894</t>
+          <t>SO3093493</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>SO2996929</t>
+          <t>SO3093536</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SO2998435</t>
+          <t>SO3093566</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SO2996996</t>
+          <t>SO3099159</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SO2997015</t>
+          <t>SO3093568</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SO2997247</t>
+          <t>SO3093567</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>SO2997136</t>
+          <t>SO3093610</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SO2997694</t>
+          <t>SO3093661</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>SO2998883</t>
+          <t>SO3098060</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>SO3001558</t>
+          <t>SO3093751</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SO2997062</t>
+          <t>SO3093744</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>SO2997106</t>
+          <t>SO3093767</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>SO2998884</t>
+          <t>SO3093786</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>SO2997220</t>
+          <t>SO3093819</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>SO2997225</t>
+          <t>SO3093839</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>SO2997219</t>
+          <t>SO3093900</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>SO2997244</t>
+          <t>SO3095439</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>SO2997250</t>
+          <t>SO3093851</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>SO2997224</t>
+          <t>SO3093966</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>SO2997594</t>
+          <t>SO3093968</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>SO2997245</t>
+          <t>SO3093965</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>SO2997303</t>
+          <t>SO3093971</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>SO2997317</t>
+          <t>SO3094018</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>SO2997325</t>
+          <t>SO3094023</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>SO2997451</t>
+          <t>SO3094020</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>SO2997510</t>
+          <t>SO3094019</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>SO2997383</t>
+          <t>SO3094043</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>SO2997351</t>
+          <t>SO3094075</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>SO2999127</t>
+          <t>SO3094072</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>SO2997457</t>
+          <t>SO3094112</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>SO2997378</t>
+          <t>SO3094111</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>SO2997382</t>
+          <t>SO3094195</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>SO2997778</t>
+          <t>SO3094143</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>SO2997466</t>
+          <t>SO3094125</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>SO2997656</t>
+          <t>SO3094142</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>SO2997509</t>
+          <t>SO3094192</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>SO2997453</t>
+          <t>SO3094194</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>SO2997597</t>
+          <t>SO3094240</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>SO2997601</t>
+          <t>SO3096602</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>SO2997652</t>
+          <t>SO3094254</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>SO2997671</t>
+          <t>SO3094280</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>SO2997675</t>
+          <t>SO3094362</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>SO2997698</t>
+          <t>SO3094252</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>SO2997835</t>
+          <t>SO3094332</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>SO2997872</t>
+          <t>SO3094323</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>SO2997770</t>
+          <t>SO3094536</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>SO2997768</t>
+          <t>SO3094348</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>SO2997923</t>
+          <t>SO3094334</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>SO2997737</t>
+          <t>SO3094360</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>SO2998048</t>
+          <t>SO3094435</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>SO2997829</t>
+          <t>SO3094402</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>SO2997921</t>
+          <t>SO3094359</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>SO2997827</t>
+          <t>SO3094393</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>SO2997769</t>
+          <t>SO3097765</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>SO2997869</t>
+          <t>SO3094455</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>SO2998078</t>
+          <t>SO3094440</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>SO2997948</t>
+          <t>SO3094507</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>SO2997823</t>
+          <t>SO3094461</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>SO2998865</t>
+          <t>SO3094495</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>SO2998021</t>
+          <t>SO3096704</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>SO2998617</t>
+          <t>SO3094538</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>SO2997978</t>
+          <t>SO3094564</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>SO2997919</t>
+          <t>SO3094550</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>SO2998072</t>
+          <t>SO3094610</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>SO2998000</t>
+          <t>SO3095424</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>SO2998121</t>
+          <t>SO3094568</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>SO3002535</t>
+          <t>SO3094626</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>SO2998023</t>
+          <t>SO3094660</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>SO2998103</t>
+          <t>SO3115640</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>SO2998075</t>
+          <t>SO3094707</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>SO2998187</t>
+          <t>SO3094877</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>SO2998436</t>
+          <t>SO3094721</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>SO2998188</t>
+          <t>SO3094752</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>SO2998266</t>
+          <t>SO3097033</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>SO2998195</t>
+          <t>SO3094661</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>SO2998331</t>
+          <t>SO3109402</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>SO2998227</t>
+          <t>SO3096114</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>SO2998433</t>
+          <t>SO3105827</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>SO2998268</t>
+          <t>SO3094713</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>SO2998323</t>
+          <t>SO3094791</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>SO2998354</t>
+          <t>SO3094860</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>SO2998327</t>
+          <t>SO3094882</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>SO2998441</t>
+          <t>SO3094958</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>SO2998431</t>
+          <t>SO3094913</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>SO2998470</t>
+          <t>SO3094938</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>SO2998619</t>
+          <t>SO3094910</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>SO2998613</t>
+          <t>SO3094911</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>SO2998612</t>
+          <t>SO3095008</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>SO2998616</t>
+          <t>SO3094990</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>SO2998432</t>
+          <t>SO3094982</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>SO2998611</t>
+          <t>SO3095040</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>SO2999146</t>
+          <t>SO3094974</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>SO2998510</t>
+          <t>SO3124306</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>SO2998882</t>
+          <t>SO3095022</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>SO2998667</t>
+          <t>SO3095129</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>SO2999141</t>
+          <t>SO3095060</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>SO2998608</t>
+          <t>SO3097662</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>SO2998785</t>
+          <t>SO3095159</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>SO2998876</t>
+          <t>SO3095096</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>SO2998792</t>
+          <t>SO3096674</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>SO2998658</t>
+          <t>SO3096001</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>SO2998874</t>
+          <t>SO3095179</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>SO2998795</t>
+          <t>SO3095180</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>SO2998886</t>
+          <t>SO3095158</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>SO2998888</t>
+          <t>SO3095210</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>SO3002573</t>
+          <t>SO3095270</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>SO2998897</t>
+          <t>SO3095225</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>SO2998893</t>
+          <t>SO3095259</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>SO2998872</t>
+          <t>SO3095262</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>SO2998867</t>
+          <t>SO3103939</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>SO2998873</t>
+          <t>SO3095285</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>SO2999548</t>
+          <t>SO3095381</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>SO2999134</t>
+          <t>SO3095312</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>SO3004346</t>
+          <t>SO3095281</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>SO2998915</t>
+          <t>SO3097275</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>SO2998912</t>
+          <t>SO3095310</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>SO3001556</t>
+          <t>SO3095296</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>SO2999144</t>
+          <t>SO3095313</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>SO2999116</t>
+          <t>SO3095371</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>SO2998917</t>
+          <t>SO3095345</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>SO2999125</t>
+          <t>SO3095342</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>SO2999133</t>
+          <t>SO3095430</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>SO2999140</t>
+          <t>SO3095429</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>SO2999112</t>
+          <t>SO3095457</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>SO3000000</t>
+          <t>SO3095450</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>SO2999114</t>
+          <t>SO3095463</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>SO2999159</t>
+          <t>SO3095460</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>SO3005293</t>
+          <t>SO3095441</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>SO2999104</t>
+          <t>SO3095478</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>SO2999103</t>
+          <t>SO3096663</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>SO3003616</t>
+          <t>SO3095574</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>SO2999558</t>
+          <t>SO3095576</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>SO2999527</t>
+          <t>SO3095523</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>SO3004422</t>
+          <t>SO3095511</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>SO2999360</t>
+          <t>SO3095553</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>SO2999535</t>
+          <t>SO3140659</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>SO2999549</t>
+          <t>SO3095557</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>SO2999528</t>
+          <t>SO3095589</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>SO2999541</t>
+          <t>SO3095604</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>SO2999354</t>
+          <t>SO3098542</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>SO2999538</t>
+          <t>SO3095606</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>SO2999521</t>
+          <t>SO3095612</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>SO2999544</t>
+          <t>SO3095638</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>SO2999536</t>
+          <t>SO3095630</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>SO2999520</t>
+          <t>SO3095672</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>SO2999534</t>
+          <t>SO3095684</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>SO2999355</t>
+          <t>SO3095725</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>SO2999575</t>
+          <t>SO3095765</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>SO2999525</t>
+          <t>SO3095737</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>SO2999526</t>
+          <t>SO3095750</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>SO2999663</t>
+          <t>SO3095767</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>SO2999686</t>
+          <t>SO3095776</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>SO2999674</t>
+          <t>SO3095775</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>SO2999662</t>
+          <t>SO3111504</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>SO2999668</t>
+          <t>SO3095809</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>SO2999669</t>
+          <t>SO3095906</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>SO2999850</t>
+          <t>SO3095909</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>SO2999993</t>
+          <t>SO3097690</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>SO3000143</t>
+          <t>SO3095934</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>SO3000007</t>
+          <t>SO3134170</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>SO3000140</t>
+          <t>SO3095967</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>SO3000455</t>
+          <t>SO3095996</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>SO3000210</t>
+          <t>SO3096067</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>SO3000209</t>
+          <t>SO3096012</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>SO3000246</t>
+          <t>SO3096037</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>SO3000360</t>
+          <t>SO3110471</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>SO3000956</t>
+          <t>SO3096047</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>SO3002571</t>
+          <t>SO3096110</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>SO3000549</t>
+          <t>SO3096074</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>SO3000415</t>
+          <t>SO3096119</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>SO3000441</t>
+          <t>SO3096092</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>SO3003341</t>
+          <t>SO3096287</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>SO3000550</t>
+          <t>SO3096161</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>SO3000557</t>
+          <t>SO3107679</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>SO3000548</t>
+          <t>SO3096959</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>SO3001723</t>
+          <t>SO3096225</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>SO3000734</t>
+          <t>SO3096254</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>SO3000633</t>
+          <t>SO3099130</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>SO3001019</t>
+          <t>SO3096239</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>SO3001081</t>
+          <t>SO3096325</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>SO3000883</t>
+          <t>SO3098199</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>SO3006739</t>
+          <t>SO3096311</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>SO3000936</t>
+          <t>SO3097805</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>SO3000955</t>
+          <t>SO3123703</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>SO3001034</t>
+          <t>SO3096431</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>SO3001022</t>
+          <t>SO3096257</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>SO3001073</t>
+          <t>SO3096717</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>SO3001078</t>
+          <t>SO3096301</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>SO3001074</t>
+          <t>SO3096358</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>SO3001083</t>
+          <t>SO3096259</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>SO3001099</t>
+          <t>SO3096506</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>SO3001165</t>
+          <t>SO3122865</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>SO3001130</t>
+          <t>SO3096539</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>SO3001188</t>
+          <t>SO3096604</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>SO3001100</t>
+          <t>SO3096605</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>SO3001167</t>
+          <t>SO3096552</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>SO3001170</t>
+          <t>SO3100414</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>SO3001290</t>
+          <t>SO3096617</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>SO3001438</t>
+          <t>SO3097228</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>SO3001345</t>
+          <t>SO3096700</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>SO3001520</t>
+          <t>SO3096612</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>SO3001343</t>
+          <t>SO3096683</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>SO3001428</t>
+          <t>SO3096706</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>SO3001352</t>
+          <t>SO3096701</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>SO3001557</t>
+          <t>SO3114268</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>SO3001476</t>
+          <t>SO3096747</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>SO3001514</t>
+          <t>SO3096763</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>SO3001515</t>
+          <t>SO3096819</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>SO3001922</t>
+          <t>SO3098745</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>SO3001767</t>
+          <t>SO3096802</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>SO3001727</t>
+          <t>SO3096838</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>SO3001809</t>
+          <t>SO3096771</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>SO3001859</t>
+          <t>SO3096820</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>SO3001997</t>
+          <t>SO3099620</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>SO3001903</t>
+          <t>SO3096804</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>SO3001990</t>
+          <t>SO3096810</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>SO3002032</t>
+          <t>SO3096837</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>SO3002304</t>
+          <t>SO3096888</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>SO3002062</t>
+          <t>SO3096856</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>SO3002136</t>
+          <t>SO3096867</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>SO3002102</t>
+          <t>SO3096891</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>SO3003887</t>
+          <t>SO3096923</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>SO3002251</t>
+          <t>SO3103963</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>SO3002227</t>
+          <t>SO3096831</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>SO3008130</t>
+          <t>SO3096954</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>SO3002283</t>
+          <t>SO3096919</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>SO3002220</t>
+          <t>SO3097171</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>SO3002420</t>
+          <t>SO3096960</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>SO3002417</t>
+          <t>SO3096957</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>SO3002622</t>
+          <t>SO3097056</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>SO3002508</t>
+          <t>SO3096961</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>SO3002462</t>
+          <t>SO3096995</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>SO3002466</t>
+          <t>SO3097035</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>SO3002543</t>
+          <t>SO3097057</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>SO3002581</t>
+          <t>SO3097031</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>SO3002741</t>
+          <t>SO3097076</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>SO3002656</t>
+          <t>SO3097066</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>SO3002840</t>
+          <t>SO3097064</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>SO3002781</t>
+          <t>SO3097102</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>SO3003152</t>
+          <t>SO3097195</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>SO3002912</t>
+          <t>SO3104110</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>SO3002909</t>
+          <t>SO3097221</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>SO3002777</t>
+          <t>SO3097194</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>SO3002784</t>
+          <t>SO3097252</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>SO3002740</t>
+          <t>SO3097277</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>SO3002801</t>
+          <t>SO3097376</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>SO3002778</t>
+          <t>SO3097349</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>SO3002810</t>
+          <t>SO3097290</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>SO3002813</t>
+          <t>SO3097342</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>SO3002989</t>
+          <t>SO3097338</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>SO3003243</t>
+          <t>SO3097351</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>SO3002780</t>
+          <t>SO3097378</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>SO3002837</t>
+          <t>SO3097364</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>SO3002907</t>
+          <t>SO3097381</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>SO3002916</t>
+          <t>SO3097408</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>SO3002979</t>
+          <t>SO3097429</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>SO3004048</t>
+          <t>SO3097498</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>SO3003100</t>
+          <t>SO3097477</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>SO3003153</t>
+          <t>SO3097514</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>SO3003405</t>
+          <t>SO3097782</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>SO3003299</t>
+          <t>SO3097515</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>SO3003193</t>
+          <t>SO3100246</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>SO3003268</t>
+          <t>SO3097528</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>SO3003296</t>
+          <t>SO3097546</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>SO3003346</t>
+          <t>SO3097530</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>SO3003452</t>
+          <t>SO3097547</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>SO3003559</t>
+          <t>SO3097573</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>SO3003555</t>
+          <t>SO3097598</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>SO3003898</t>
+          <t>SO3097582</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>SO3003890</t>
+          <t>SO3097678</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>SO3003895</t>
+          <t>SO3097586</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>SO3003883</t>
+          <t>SO3146159</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>SO3003920</t>
+          <t>SO3097636</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>SO3004154</t>
+          <t>SO3097645</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>SO3004052</t>
+          <t>SO3097691</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>SO3004133</t>
+          <t>SO3097717</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>SO3004103</t>
+          <t>SO3098952</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>SO3004172</t>
+          <t>SO3097769</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>SO3004134</t>
+          <t>SO3097714</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>SO3004247</t>
+          <t>SO3097720</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>SO3004242</t>
+          <t>SO3097821</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>SO3004299</t>
+          <t>SO3097841</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>SO3004246</t>
+          <t>SO3097982</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>SO3004206</t>
+          <t>SO3097787</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>SO3004259</t>
+          <t>SO3097840</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>SO3004294</t>
+          <t>SO3097783</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>SO3004365</t>
+          <t>SO3097801</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>SO3004341</t>
+          <t>SO3097781</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>SO3004340</t>
+          <t>SO3097806</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>SO3004430</t>
+          <t>SO3097932</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>SO3004532</t>
+          <t>SO3097865</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>SO3004538</t>
+          <t>SO3097866</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>SO3004535</t>
+          <t>SO3097856</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>SO3004682</t>
+          <t>SO3097858</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>SO3004678</t>
+          <t>SO3097875</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>SO3004599</t>
+          <t>SO3097904</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>SO3004770</t>
+          <t>SO3097905</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>SO3004925</t>
+          <t>SO3106168</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>SO3005000</t>
+          <t>SO3097930</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>SO3004999</t>
+          <t>SO3097936</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>SO3005004</t>
+          <t>SO3097934</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>SO3004998</t>
+          <t>SO3097989</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>SO3005021</t>
+          <t>SO3098019</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>SO3005364</t>
+          <t>SO3097992</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>SO3005218</t>
+          <t>SO3131519</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>SO3005504</t>
+          <t>SO3098070</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>SO3005221</t>
+          <t>SO3098002</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>SO3005219</t>
+          <t>SO3098081</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>SO3005363</t>
+          <t>SO3098072</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>SO3005815</t>
+          <t>SO3099007</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>SO3005699</t>
+          <t>SO3098142</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>SO3005955</t>
+          <t>SO3098138</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>SO3005694</t>
+          <t>SO3098204</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>SO3005634</t>
+          <t>SO3098216</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>SO3005829</t>
+          <t>SO3098208</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>SO3005706</t>
+          <t>SO3099264</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>SO3005819</t>
+          <t>SO3098233</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>SO3006008</t>
+          <t>SO3139579</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>SO3005962</t>
+          <t>SO3098248</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>SO3006128</t>
+          <t>SO3098608</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>SO3008067</t>
+          <t>SO3098275</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>SO3006373</t>
+          <t>SO3102252</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>SO3006123</t>
+          <t>SO3098426</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>SO3006179</t>
+          <t>SO3098302</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>SO3006248</t>
+          <t>SO3098313</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>SO3006132</t>
+          <t>SO3098322</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>SO3006191</t>
+          <t>SO3098323</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>SO3006197</t>
+          <t>SO3099236</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>SO3007486</t>
+          <t>SO3100607</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>SO3006180</t>
+          <t>SO3098543</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>SO3006301</t>
+          <t>SO3098564</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>SO3006254</t>
+          <t>SO3098590</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>SO3006359</t>
+          <t>SO3098539</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>SO3006308</t>
+          <t>SO3098581</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>SO3006394</t>
+          <t>SO3098597</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>SO3006393</t>
+          <t>SO3098642</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>SO3006503</t>
+          <t>SO3098612</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>SO3006680</t>
+          <t>SO3098637</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>SO3006610</t>
+          <t>SO3098609</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>SO3006819</t>
+          <t>SO3098650</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>SO3006688</t>
+          <t>SO3101094</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>SO3006991</t>
+          <t>SO3098730</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>SO3006941</t>
+          <t>SO3098698</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>SO3006939</t>
+          <t>SO3099329</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>SO3006930</t>
+          <t>SO3098794</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>SO3007072</t>
+          <t>SO3098799</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>SO3007158</t>
+          <t>SO3098816</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>SO3007180</t>
+          <t>SO3099201</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>SO3007173</t>
+          <t>SO3098978</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>SO3008006</t>
+          <t>SO3098851</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>SO3008198</t>
+          <t>SO3098863</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>SO3007370</t>
+          <t>SO3102159</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>SO3007603</t>
+          <t>SO3099048</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>SO3007390</t>
+          <t>SO3134405</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>SO3008472</t>
+          <t>SO3098933</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>SO3007704</t>
+          <t>SO3099063</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>SO3007755</t>
+          <t>SO3098943</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>SO3007826</t>
+          <t>SO3099024</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>SO3008199</t>
+          <t>SO3099082</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>SO3008055</t>
+          <t>SO3099027</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>SO3008103</t>
+          <t>SO3099023</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>SO3008221</t>
+          <t>SO3099062</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>SO3008298</t>
+          <t>SO3099067</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>SO3008324</t>
+          <t>SO3099153</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>SO3008405</t>
+          <t>SO3099652</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>SO3008487</t>
+          <t>SO3099197</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>SO3008745</t>
+          <t>SO3099221</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>SO3008699</t>
+          <t>SO3099267</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>SO3009247</t>
+          <t>SO3099326</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>SO2993750</t>
+          <t>SO3100477</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>SO2965255</t>
+          <t>SO3099331</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>SO2932763</t>
+          <t>SO3099289</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>SO2895533</t>
+          <t>SO3099497</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>SO2884710</t>
+          <t>SO3099517</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>SO2891306</t>
+          <t>SO3099519</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>SO2958920</t>
+          <t>SO3099465</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>SO2883654</t>
+          <t>SO3099560</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>SO2886910</t>
+          <t>SO3099531</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>SO2933082</t>
+          <t>SO3099550</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>SO2897386</t>
+          <t>SO3099551</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>SO2939684</t>
+          <t>SO3099629</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>SO2932461</t>
+          <t>SO3099498</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>SO2939444</t>
+          <t>SO3099590</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>SO2951902</t>
+          <t>SO3099587</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>SO2904752</t>
+          <t>SO3099619</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>SO2960238</t>
+          <t>SO3099666</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>SO2898758</t>
+          <t>SO3099592</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>SO2980537</t>
+          <t>SO3099774</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>SO2960143</t>
+          <t>SO3099617</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>SO2964342</t>
+          <t>SO3099758</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>SO2991175</t>
+          <t>SO3099719</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>SO2987126</t>
+          <t>SO3099696</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>SO2970584</t>
+          <t>SO3099770</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>SO2957470</t>
+          <t>SO3099804</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>SO2954327</t>
+          <t>SO3099858</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>SO2958394</t>
+          <t>SO3099717</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>SO2950992</t>
+          <t>SO3099843</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>SO2960858</t>
+          <t>SO3099718</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>SO2937699</t>
+          <t>SO3099695</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>SO2951839</t>
+          <t>SO3099768</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>SO2983489</t>
+          <t>SO3099823</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>SO2952018</t>
+          <t>SO3099905</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>SO3000456</t>
+          <t>SO3099869</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>SO2886005</t>
+          <t>SO3100010</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>SO2952110</t>
+          <t>SO3100262</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>SO2963184</t>
+          <t>SO3100145</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>SO2911084</t>
+          <t>SO3100263</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>SO2975694</t>
+          <t>SO3100372</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>SO2904710</t>
+          <t>SO3100321</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>SO2982925</t>
+          <t>SO3100274</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>SO2953648</t>
+          <t>SO3100338</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>SO2938221</t>
+          <t>SO3100322</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>SO2879241</t>
+          <t>SO3100304</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>SO2885574</t>
+          <t>SO3101912</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>SO2965419</t>
+          <t>SO3100355</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>SO2990188</t>
+          <t>SO3100391</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>SO2982047</t>
+          <t>SO3100422</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>SO2934723</t>
+          <t>SO3100433</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>SO2965310</t>
+          <t>SO3100590</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>SO2948542</t>
+          <t>SO3100479</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>SO2959667</t>
+          <t>SO3100512</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>SO2935323</t>
+          <t>SO3100559</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>SO2946776</t>
+          <t>SO3100515</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>SO2937252</t>
+          <t>SO3100655</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>SO2927546</t>
+          <t>SO3100609</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>SO2938208</t>
+          <t>SO3105300</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>SO2993748</t>
+          <t>SO3100676</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>SO2992406</t>
+          <t>SO3100677</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>SO2949231</t>
+          <t>SO3100752</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>SO2882121</t>
+          <t>SO3100644</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>SO2958284</t>
+          <t>SO3102352</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>SO2898004</t>
+          <t>SO3100663</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>SO2979145</t>
+          <t>SO3100792</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>SO2973575</t>
+          <t>SO3100887</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>SO2926716</t>
+          <t>SO3100938</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>SO2988145</t>
+          <t>SO3100953</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>SO2941898</t>
+          <t>SO3101124</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>SO2995220</t>
+          <t>SO3101144</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>SO2964161</t>
+          <t>SO3101095</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>SO2971917</t>
+          <t>SO3101173</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>SO2965451</t>
+          <t>SO3101199</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>SO2960657</t>
+          <t>SO3103879</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>SO2963686</t>
+          <t>SO3101259</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>SO2895064</t>
+          <t>SO3101277</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>SO2966307</t>
+          <t>SO3103053</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>SO2988230</t>
+          <t>SO3131976</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>SO2897683</t>
+          <t>SO3101481</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>SO2949272</t>
+          <t>SO3101626</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>SO2948481</t>
+          <t>SO3101479</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>SO2987125</t>
+          <t>SO3101427</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>SO2952442</t>
+          <t>SO3140406</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>SO2984480</t>
+          <t>SO3101542</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>SO2908761</t>
+          <t>SO3101541</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>SO2947538</t>
+          <t>SO3101612</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>SO2898111</t>
+          <t>SO3101625</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>SO2899590</t>
+          <t>SO3101728</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>SO2938539</t>
+          <t>SO3101650</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>SO2968095</t>
+          <t>SO3101675</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>SO2935550</t>
+          <t>SO3101698</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>SO2968438</t>
+          <t>SO3101740</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>SO2878568</t>
+          <t>SO3104983</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>SO2966712</t>
+          <t>SO3101860</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>SO2883932</t>
+          <t>SO3140390</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>SO2949589</t>
+          <t>SO3101913</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>SO2999147</t>
+          <t>SO3106455</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>SO2970530</t>
+          <t>SO3101999</t>
         </is>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>SO2986158</t>
+          <t>SO3102077</t>
         </is>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>SO2938377</t>
+          <t>SO3102255</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>SO2899533</t>
+          <t>SO3102249</t>
         </is>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>SO2932665</t>
+          <t>SO3102191</t>
         </is>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>SO2889996</t>
+          <t>SO3102193</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>SO2936571</t>
+          <t>SO3102201</t>
         </is>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>SO2934743</t>
+          <t>SO3102250</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>SO2941073</t>
+          <t>SO3102248</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>SO2888612</t>
+          <t>SO3102345</t>
         </is>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>SO2958971</t>
+          <t>SO3102253</t>
         </is>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>SO2946171</t>
+          <t>SO3111812</t>
         </is>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>SO2931357</t>
+          <t>SO3102829</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>SO2939114</t>
+          <t>SO3104203</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>SO2910677</t>
+          <t>SO3102499</t>
         </is>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>SO2986867</t>
+          <t>SO3102304</t>
         </is>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>SO2894679</t>
+          <t>SO3102370</t>
         </is>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>SO2904739</t>
+          <t>SO3102431</t>
         </is>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>SO2940555</t>
+          <t>SO3102314</t>
         </is>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>SO2882194</t>
+          <t>SO3102543</t>
         </is>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>SO2885159</t>
+          <t>SO3102562</t>
         </is>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>SO2969153</t>
+          <t>SO3102599</t>
         </is>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>SO2992500</t>
+          <t>SO3102576</t>
         </is>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>SO2994380</t>
+          <t>SO3102634</t>
         </is>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>SO2935666</t>
+          <t>SO3106204</t>
         </is>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>SO2933374</t>
+          <t>SO3108827</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>SO2975781</t>
+          <t>SO3102702</t>
         </is>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>SO2904967</t>
+          <t>SO3102641</t>
         </is>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>SO2878700</t>
+          <t>SO3102597</t>
         </is>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>SO2938058</t>
+          <t>SO3102614</t>
         </is>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>SO2911115</t>
+          <t>SO3102703</t>
         </is>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>SO2910836</t>
+          <t>SO3102752</t>
         </is>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>SO2878592</t>
+          <t>SO3102779</t>
         </is>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>SO2877986</t>
+          <t>SO3102790</t>
         </is>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>SO2878069</t>
+          <t>SO3102789</t>
         </is>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>SO2878178</t>
+          <t>SO3102780</t>
         </is>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>SO2897744</t>
+          <t>SO3102841</t>
         </is>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>SO2878253</t>
+          <t>SO3102959</t>
         </is>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>SO2878272</t>
+          <t>SO3103320</t>
         </is>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>SO2878372</t>
+          <t>SO3102853</t>
         </is>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>SO2878538</t>
+          <t>SO3102855</t>
         </is>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>SO2878539</t>
+          <t>SO3102942</t>
         </is>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>SO2878561</t>
+          <t>SO3102842</t>
         </is>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>SO2959558</t>
+          <t>SO3102826</t>
         </is>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>SO2878750</t>
+          <t>SO3102909</t>
         </is>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>SO2880534</t>
+          <t>SO3103021</t>
         </is>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>SO2878767</t>
+          <t>SO3105354</t>
         </is>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>SO2878853</t>
+          <t>SO3104343</t>
         </is>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>SO2879029</t>
+          <t>SO3102921</t>
         </is>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>SO2878997</t>
+          <t>SO3102954</t>
         </is>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>SO2879007</t>
+          <t>SO3102974</t>
         </is>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>SO2879134</t>
+          <t>SO3102989</t>
         </is>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>SO2879146</t>
+          <t>SO3103020</t>
         </is>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>SO2879227</t>
+          <t>SO3104719</t>
         </is>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>SO2880698</t>
+          <t>SO3103075</t>
         </is>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>SO2879478</t>
+          <t>SO3103094</t>
         </is>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>SO2879602</t>
+          <t>SO3108243</t>
         </is>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>SO2879724</t>
+          <t>SO3103149</t>
         </is>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>SO2879807</t>
+          <t>SO3103178</t>
         </is>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>SO2879785</t>
+          <t>SO3103177</t>
         </is>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>SO2879837</t>
+          <t>SO3103247</t>
         </is>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>SO2880030</t>
+          <t>SO3103270</t>
         </is>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>SO2880113</t>
+          <t>SO3103205</t>
         </is>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>SO2939057</t>
+          <t>SO3111844</t>
         </is>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>SO2880192</t>
+          <t>SO3105456</t>
         </is>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>SO2880223</t>
+          <t>SO3103415</t>
         </is>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>SO2880352</t>
+          <t>SO3103298</t>
         </is>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>SO2880529</t>
+          <t>SO3103311</t>
         </is>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>SO2880612</t>
+          <t>SO3103347</t>
         </is>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>SO2880754</t>
+          <t>SO3105584</t>
         </is>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>SO2880906</t>
+          <t>SO3103455</t>
         </is>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>SO2880922</t>
+          <t>SO3103449</t>
         </is>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>SO2880994</t>
+          <t>SO3103500</t>
         </is>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>SO2880995</t>
+          <t>SO3104692</t>
         </is>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>SO2881038</t>
+          <t>SO3103772</t>
         </is>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>SO2881140</t>
+          <t>SO3103666</t>
         </is>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>SO2881549</t>
+          <t>SO3103771</t>
         </is>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>SO2967821</t>
+          <t>SO3103770</t>
         </is>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>SO2889808</t>
+          <t>SO3103789</t>
         </is>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>SO2881629</t>
+          <t>SO3103810</t>
         </is>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>SO2931269</t>
+          <t>SO3105724</t>
         </is>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>SO2881860</t>
+          <t>SO3103908</t>
         </is>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>SO2881912</t>
+          <t>SO3103919</t>
         </is>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>SO2881946</t>
+          <t>SO3103878</t>
         </is>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>SO2881992</t>
+          <t>SO3103952</t>
         </is>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>SO2882011</t>
+          <t>SO3103988</t>
         </is>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>SO2882103</t>
+          <t>SO3106252</t>
         </is>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>SO2899249</t>
+          <t>SO3105507</t>
         </is>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>SO2882465</t>
+          <t>SO3104128</t>
         </is>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>SO2985231</t>
+          <t>SO3104077</t>
         </is>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>SO2882659</t>
+          <t>SO3104148</t>
         </is>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>SO2882882</t>
+          <t>SO3104704</t>
         </is>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>SO2882858</t>
+          <t>SO3104160</t>
         </is>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>SO2883005</t>
+          <t>SO3109779</t>
         </is>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>SO2895649</t>
+          <t>SO3104337</t>
         </is>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>SO2883075</t>
+          <t>SO3104381</t>
         </is>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>SO2883231</t>
+          <t>SO3104358</t>
         </is>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>SO2887549</t>
+          <t>SO3104422</t>
         </is>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>SO2883356</t>
+          <t>SO3104339</t>
         </is>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>SO2883375</t>
+          <t>SO3106152</t>
         </is>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>SO2883471</t>
+          <t>SO3105077</t>
         </is>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>SO2883432</t>
+          <t>SO3104545</t>
         </is>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>SO2883430</t>
+          <t>SO3106555</t>
         </is>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>SO2883556</t>
+          <t>SO3104676</t>
         </is>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>SO2883603</t>
+          <t>SO3104682</t>
         </is>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>SO2940265</t>
+          <t>SO3109423</t>
         </is>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>SO2883745</t>
+          <t>SO3104757</t>
         </is>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>SO2883950</t>
+          <t>SO3104768</t>
         </is>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>SO2884092</t>
+          <t>SO3115612</t>
         </is>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>SO2884187</t>
+          <t>SO3104832</t>
         </is>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>SO2941072</t>
+          <t>SO3107321</t>
         </is>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>SO2884223</t>
+          <t>SO3105041</t>
         </is>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>SO2884455</t>
+          <t>SO3104890</t>
         </is>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>SO2884547</t>
+          <t>SO3104950</t>
         </is>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>SO2885680</t>
+          <t>SO3105080</t>
         </is>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>SO2884765</t>
+          <t>SO3104987</t>
         </is>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>SO2886639</t>
+          <t>SO3104971</t>
         </is>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>SO2885023</t>
+          <t>SO3104972</t>
         </is>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>SO3006019</t>
+          <t>SO3105027</t>
         </is>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>SO2885061</t>
+          <t>SO3106052</t>
         </is>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>SO2885136</t>
+          <t>SO3105039</t>
         </is>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>SO2885866</t>
+          <t>SO3146184</t>
         </is>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>SO2885337</t>
+          <t>SO3105015</t>
         </is>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>SO2885278</t>
+          <t>SO3105053</t>
         </is>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>SO2885430</t>
+          <t>SO3105380</t>
         </is>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>SO2885429</t>
+          <t>SO3105153</t>
         </is>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>SO2885428</t>
+          <t>SO3105144</t>
         </is>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>SO2885467</t>
+          <t>SO3105112</t>
         </is>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>SO2885745</t>
+          <t>SO3105152</t>
         </is>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>SO2885515</t>
+          <t>SO3105253</t>
         </is>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>SO2885693</t>
+          <t>SO3146175</t>
         </is>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>SO2885819</t>
+          <t>SO3105266</t>
         </is>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>SO2885822</t>
+          <t>SO3105325</t>
         </is>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>SO2885864</t>
+          <t>SO3105296</t>
         </is>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>SO2886020</t>
+          <t>SO3105368</t>
         </is>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>SO2886211</t>
+          <t>SO3105334</t>
         </is>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>SO2886329</t>
+          <t>SO3105486</t>
         </is>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>SO2886491</t>
+          <t>SO3106037</t>
         </is>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>SO2931904</t>
+          <t>SO3105462</t>
         </is>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>SO2886954</t>
+          <t>SO3105485</t>
         </is>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>SO2887510</t>
+          <t>SO3105382</t>
         </is>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>SO2887156</t>
+          <t>SO3105495</t>
         </is>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>SO2896444</t>
+          <t>SO3105506</t>
         </is>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>SO2891638</t>
+          <t>SO3105545</t>
         </is>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>SO2887594</t>
+          <t>SO3105503</t>
         </is>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>SO2889157</t>
+          <t>SO3105546</t>
         </is>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>SO2888136</t>
+          <t>SO3105516</t>
         </is>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>SO2888370</t>
+          <t>SO3105610</t>
         </is>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>SO2888400</t>
+          <t>SO3105726</t>
         </is>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>SO2888515</t>
+          <t>SO3105604</t>
         </is>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>SO2888494</t>
+          <t>SO3132839</t>
         </is>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>SO2904703</t>
+          <t>SO3105581</t>
         </is>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>SO2888791</t>
+          <t>SO3105603</t>
         </is>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>SO2945054</t>
+          <t>SO3150781</t>
         </is>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>SO2890905</t>
+          <t>SO3105629</t>
         </is>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>SO2889082</t>
+          <t>SO3145108</t>
         </is>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>SO2889271</t>
+          <t>SO3105678</t>
         </is>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>SO2889270</t>
+          <t>SO3105692</t>
         </is>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>SO2908839</t>
+          <t>SO3105648</t>
         </is>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>SO2889532</t>
+          <t>SO3105694</t>
         </is>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>SO2889650</t>
+          <t>SO3105753</t>
         </is>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>SO2935081</t>
+          <t>SO3105825</t>
         </is>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>SO2893398</t>
+          <t>SO3105828</t>
         </is>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>SO2904756</t>
+          <t>SO3107320</t>
         </is>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>SO2933063</t>
+          <t>SO3133912</t>
         </is>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>SO2890787</t>
+          <t>SO3106998</t>
         </is>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>SO2890927</t>
+          <t>SO3105868</t>
         </is>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>SO2956137</t>
+          <t>SO3105876</t>
         </is>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>SO2891214</t>
+          <t>SO3105902</t>
         </is>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>SO2891762</t>
+          <t>SO3105907</t>
         </is>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>SO2959602</t>
+          <t>SO3105994</t>
         </is>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>SO2892462</t>
+          <t>SO3105916</t>
         </is>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>SO2892639</t>
+          <t>SO3106986</t>
         </is>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>SO2983818</t>
+          <t>SO3106040</t>
         </is>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>SO2892857</t>
+          <t>SO3106170</t>
         </is>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>SO2893045</t>
+          <t>SO3146153</t>
         </is>
       </c>
     </row>
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>SO2893591</t>
+          <t>SO3146148</t>
         </is>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>SO2893102</t>
+          <t>SO3106237</t>
         </is>
       </c>
     </row>
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>SO2894099</t>
+          <t>SO3106235</t>
         </is>
       </c>
     </row>
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>SO2893811</t>
+          <t>SO3146146</t>
         </is>
       </c>
     </row>
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>SO2893996</t>
+          <t>SO3106300</t>
         </is>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>SO2926340</t>
+          <t>SO3106234</t>
         </is>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>SO2896653</t>
+          <t>SO3106253</t>
         </is>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>SO2894116</t>
+          <t>SO3106311</t>
         </is>
       </c>
     </row>
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>SO2894164</t>
+          <t>SO3106255</t>
         </is>
       </c>
     </row>
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>SO2898683</t>
+          <t>SO3106324</t>
         </is>
       </c>
     </row>
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>SO2894288</t>
+          <t>SO3106372</t>
         </is>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>SO2894482</t>
+          <t>SO3106345</t>
         </is>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>SO2894490</t>
+          <t>SO3106352</t>
         </is>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>SO2894586</t>
+          <t>SO3106436</t>
         </is>
       </c>
     </row>
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>SO2894561</t>
+          <t>SO3106382</t>
         </is>
       </c>
     </row>
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>SO2894559</t>
+          <t>SO3106432</t>
         </is>
       </c>
     </row>
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>SO2894599</t>
+          <t>SO3109971</t>
         </is>
       </c>
     </row>
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>SO2894600</t>
+          <t>SO3106560</t>
         </is>
       </c>
     </row>
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>SO2904835</t>
+          <t>SO3106499</t>
         </is>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>SO2895042</t>
+          <t>SO3106489</t>
         </is>
       </c>
     </row>
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>SO2895090</t>
+          <t>SO3110358</t>
         </is>
       </c>
     </row>
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>SO2899593</t>
+          <t>SO3107542</t>
         </is>
       </c>
     </row>
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>SO2929317</t>
+          <t>SO3106594</t>
         </is>
       </c>
     </row>
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>SO2981629</t>
+          <t>SO3106631</t>
         </is>
       </c>
     </row>
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>SO2979181</t>
+          <t>SO3106614</t>
         </is>
       </c>
     </row>
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>SO2895225</t>
+          <t>SO3106689</t>
         </is>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>SO2951947</t>
+          <t>SO3106630</t>
         </is>
       </c>
     </row>
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>SO2895550</t>
+          <t>SO3106730</t>
         </is>
       </c>
     </row>
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>SO3006881</t>
+          <t>SO3106641</t>
         </is>
       </c>
     </row>
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>SO2895633</t>
+          <t>SO3106714</t>
         </is>
       </c>
     </row>
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>SO2895666</t>
+          <t>SO3106684</t>
         </is>
       </c>
     </row>
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>SO2895817</t>
+          <t>SO3106733</t>
         </is>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>SO2895859</t>
+          <t>SO3106778</t>
         </is>
       </c>
     </row>
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>SO2896099</t>
+          <t>SO3106735</t>
         </is>
       </c>
     </row>
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>SO2896348</t>
+          <t>SO3106773</t>
         </is>
       </c>
     </row>
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>SO2896383</t>
+          <t>SO3108011</t>
         </is>
       </c>
     </row>
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>SO2896384</t>
+          <t>SO3106909</t>
         </is>
       </c>
     </row>
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>SO2896442</t>
+          <t>SO3106915</t>
         </is>
       </c>
     </row>
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>SO2896638</t>
+          <t>SO3106852</t>
         </is>
       </c>
     </row>
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>SO2896673</t>
+          <t>SO3106833</t>
         </is>
       </c>
     </row>
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>SO2896748</t>
+          <t>SO3106990</t>
         </is>
       </c>
     </row>
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>SO2896774</t>
+          <t>SO3108081</t>
         </is>
       </c>
     </row>
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>SO2896751</t>
+          <t>SO3106971</t>
         </is>
       </c>
     </row>
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>SO2896837</t>
+          <t>SO3107589</t>
         </is>
       </c>
     </row>
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>SO2933601</t>
+          <t>SO3106999</t>
         </is>
       </c>
     </row>
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>SO2896771</t>
+          <t>SO3107113</t>
         </is>
       </c>
     </row>
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>SO2896924</t>
+          <t>SO3107065</t>
         </is>
       </c>
     </row>
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>SO2896966</t>
+          <t>SO3111689</t>
         </is>
       </c>
     </row>
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>SO2896979</t>
+          <t>SO3106996</t>
         </is>
       </c>
     </row>
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>SO2896998</t>
+          <t>SO3107066</t>
         </is>
       </c>
     </row>
     <row r="735">
       <c r="A735" t="inlineStr">
         <is>
-          <t>SO2897028</t>
+          <t>SO3107211</t>
         </is>
       </c>
     </row>
     <row r="736">
       <c r="A736" t="inlineStr">
         <is>
-          <t>SO2898712</t>
+          <t>SO3107317</t>
         </is>
       </c>
     </row>
     <row r="737">
       <c r="A737" t="inlineStr">
         <is>
-          <t>SO2897341</t>
+          <t>SO3107313</t>
         </is>
       </c>
     </row>
     <row r="738">
       <c r="A738" t="inlineStr">
         <is>
-          <t>SO2897011</t>
+          <t>SO3107348</t>
         </is>
       </c>
     </row>
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>SO2897061</t>
+          <t>SO3110355</t>
         </is>
       </c>
     </row>
     <row r="740">
       <c r="A740" t="inlineStr">
         <is>
-          <t>SO2897057</t>
+          <t>SO3110352</t>
         </is>
       </c>
     </row>
     <row r="741">
       <c r="A741" t="inlineStr">
         <is>
-          <t>SO2896995</t>
+          <t>SO3107368</t>
         </is>
       </c>
     </row>
     <row r="742">
       <c r="A742" t="inlineStr">
         <is>
-          <t>SO2897043</t>
+          <t>SO3110350</t>
         </is>
       </c>
     </row>
     <row r="743">
       <c r="A743" t="inlineStr">
         <is>
-          <t>SO2897084</t>
+          <t>SO3107363</t>
         </is>
       </c>
     </row>
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>SO2897155</t>
+          <t>SO3107389</t>
         </is>
       </c>
     </row>
     <row r="745">
       <c r="A745" t="inlineStr">
         <is>
-          <t>SO2897280</t>
+          <t>SO3107379</t>
         </is>
       </c>
     </row>
     <row r="746">
       <c r="A746" t="inlineStr">
         <is>
-          <t>SO2897279</t>
+          <t>SO3107547</t>
         </is>
       </c>
     </row>
     <row r="747">
       <c r="A747" t="inlineStr">
         <is>
-          <t>SO2897301</t>
+          <t>SO3107424</t>
         </is>
       </c>
     </row>
     <row r="748">
       <c r="A748" t="inlineStr">
         <is>
-          <t>SO2897363</t>
+          <t>SO3107456</t>
         </is>
       </c>
     </row>
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>SO2897447</t>
+          <t>SO3107471</t>
         </is>
       </c>
     </row>
     <row r="750">
       <c r="A750" t="inlineStr">
         <is>
-          <t>SO2897449</t>
+          <t>SO3107497</t>
         </is>
       </c>
     </row>
     <row r="751">
       <c r="A751" t="inlineStr">
         <is>
-          <t>SO2897450</t>
+          <t>SO3107526</t>
         </is>
       </c>
     </row>
     <row r="752">
       <c r="A752" t="inlineStr">
         <is>
-          <t>SO2897402</t>
+          <t>SO3107587</t>
         </is>
       </c>
     </row>
     <row r="753">
       <c r="A753" t="inlineStr">
         <is>
-          <t>SO2897588</t>
+          <t>SO3107591</t>
         </is>
       </c>
     </row>
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>SO2897630</t>
+          <t>SO3107675</t>
         </is>
       </c>
     </row>
     <row r="755">
       <c r="A755" t="inlineStr">
         <is>
-          <t>SO2897510</t>
+          <t>SO3107634</t>
         </is>
       </c>
     </row>
     <row r="756">
       <c r="A756" t="inlineStr">
         <is>
-          <t>SO2897718</t>
+          <t>SO3107670</t>
         </is>
       </c>
     </row>
     <row r="757">
       <c r="A757" t="inlineStr">
         <is>
-          <t>SO2897633</t>
+          <t>SO3107718</t>
         </is>
       </c>
     </row>
     <row r="758">
       <c r="A758" t="inlineStr">
         <is>
-          <t>SO2897684</t>
+          <t>SO3148815</t>
         </is>
       </c>
     </row>
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>SO2898114</t>
+          <t>SO3107778</t>
         </is>
       </c>
     </row>
     <row r="760">
       <c r="A760" t="inlineStr">
         <is>
-          <t>SO2897770</t>
+          <t>SO3107869</t>
         </is>
       </c>
     </row>
     <row r="761">
       <c r="A761" t="inlineStr">
         <is>
-          <t>SO2897768</t>
+          <t>SO3107851</t>
         </is>
       </c>
     </row>
     <row r="762">
       <c r="A762" t="inlineStr">
         <is>
-          <t>SO2897782</t>
+          <t>SO3107870</t>
         </is>
       </c>
     </row>
     <row r="763">
       <c r="A763" t="inlineStr">
         <is>
-          <t>SO2897825</t>
+          <t>SO3107929</t>
         </is>
       </c>
     </row>
     <row r="764">
       <c r="A764" t="inlineStr">
         <is>
-          <t>SO2897868</t>
+          <t>SO3107850</t>
         </is>
       </c>
     </row>
     <row r="765">
       <c r="A765" t="inlineStr">
         <is>
-          <t>SO2897871</t>
+          <t>SO3107927</t>
         </is>
       </c>
     </row>
     <row r="766">
       <c r="A766" t="inlineStr">
         <is>
-          <t>SO2897903</t>
+          <t>SO3107926</t>
         </is>
       </c>
     </row>
     <row r="767">
       <c r="A767" t="inlineStr">
         <is>
-          <t>SO2898299</t>
+          <t>SO3108056</t>
         </is>
       </c>
     </row>
     <row r="768">
       <c r="A768" t="inlineStr">
         <is>
-          <t>SO2897972</t>
+          <t>SO3108250</t>
         </is>
       </c>
     </row>
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>SO2898028</t>
+          <t>SO3108042</t>
         </is>
       </c>
     </row>
     <row r="770">
       <c r="A770" t="inlineStr">
         <is>
-          <t>SO2898090</t>
+          <t>SO3108052</t>
         </is>
       </c>
     </row>
     <row r="771">
       <c r="A771" t="inlineStr">
         <is>
-          <t>SO2898089</t>
+          <t>SO3108104</t>
         </is>
       </c>
     </row>
     <row r="772">
       <c r="A772" t="inlineStr">
         <is>
-          <t>SO2898136</t>
+          <t>SO3108131</t>
         </is>
       </c>
     </row>
     <row r="773">
       <c r="A773" t="inlineStr">
         <is>
-          <t>SO2898184</t>
+          <t>SO3108145</t>
         </is>
       </c>
     </row>
     <row r="774">
       <c r="A774" t="inlineStr">
         <is>
-          <t>SO2898266</t>
+          <t>SO3111675</t>
         </is>
       </c>
     </row>
     <row r="775">
       <c r="A775" t="inlineStr">
         <is>
-          <t>SO2898264</t>
+          <t>SO3108202</t>
         </is>
       </c>
     </row>
     <row r="776">
       <c r="A776" t="inlineStr">
         <is>
-          <t>SO2898297</t>
+          <t>SO3109824</t>
         </is>
       </c>
     </row>
     <row r="777">
       <c r="A777" t="inlineStr">
         <is>
-          <t>SO2898348</t>
+          <t>SO3108360</t>
         </is>
       </c>
     </row>
     <row r="778">
       <c r="A778" t="inlineStr">
         <is>
-          <t>SO2898393</t>
+          <t>SO3109884</t>
         </is>
       </c>
     </row>
     <row r="779">
       <c r="A779" t="inlineStr">
         <is>
-          <t>SO2898410</t>
+          <t>SO3108331</t>
         </is>
       </c>
     </row>
     <row r="780">
       <c r="A780" t="inlineStr">
         <is>
-          <t>SO2898408</t>
+          <t>SO3108308</t>
         </is>
       </c>
     </row>
     <row r="781">
       <c r="A781" t="inlineStr">
         <is>
-          <t>SO2898428</t>
+          <t>SO3111616</t>
         </is>
       </c>
     </row>
     <row r="782">
       <c r="A782" t="inlineStr">
         <is>
-          <t>SO2899119</t>
+          <t>SO3108397</t>
         </is>
       </c>
     </row>
     <row r="783">
       <c r="A783" t="inlineStr">
         <is>
-          <t>SO2898424</t>
+          <t>SO3108423</t>
         </is>
       </c>
     </row>
     <row r="784">
       <c r="A784" t="inlineStr">
         <is>
-          <t>SO2898409</t>
+          <t>SO3108418</t>
         </is>
       </c>
     </row>
     <row r="785">
       <c r="A785" t="inlineStr">
         <is>
-          <t>SO2898429</t>
+          <t>SO3108431</t>
         </is>
       </c>
     </row>
     <row r="786">
       <c r="A786" t="inlineStr">
         <is>
-          <t>SO2898450</t>
+          <t>SO3109695</t>
         </is>
       </c>
     </row>
     <row r="787">
       <c r="A787" t="inlineStr">
         <is>
-          <t>SO2898509</t>
+          <t>SO3108563</t>
         </is>
       </c>
     </row>
     <row r="788">
       <c r="A788" t="inlineStr">
         <is>
-          <t>SO2898577</t>
+          <t>SO3108619</t>
         </is>
       </c>
     </row>
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>SO2898655</t>
+          <t>SO3108684</t>
         </is>
       </c>
     </row>
     <row r="790">
       <c r="A790" t="inlineStr">
         <is>
-          <t>SO2898510</t>
+          <t>SO3108630</t>
         </is>
       </c>
     </row>
     <row r="791">
       <c r="A791" t="inlineStr">
         <is>
-          <t>SO2898725</t>
+          <t>SO3108618</t>
         </is>
       </c>
     </row>
     <row r="792">
       <c r="A792" t="inlineStr">
         <is>
-          <t>SO2898491</t>
+          <t>SO3108651</t>
         </is>
       </c>
     </row>
     <row r="793">
       <c r="A793" t="inlineStr">
         <is>
-          <t>SO2898512</t>
+          <t>SO3108671</t>
         </is>
       </c>
     </row>
     <row r="794">
       <c r="A794" t="inlineStr">
         <is>
-          <t>SO2898742</t>
+          <t>SO3108801</t>
         </is>
       </c>
     </row>
     <row r="795">
       <c r="A795" t="inlineStr">
         <is>
-          <t>SO2898656</t>
+          <t>SO3108737</t>
         </is>
       </c>
     </row>
     <row r="796">
       <c r="A796" t="inlineStr">
         <is>
-          <t>SO2898672</t>
+          <t>SO3109370</t>
         </is>
       </c>
     </row>
     <row r="797">
       <c r="A797" t="inlineStr">
         <is>
-          <t>SO2898715</t>
+          <t>SO3108780</t>
         </is>
       </c>
     </row>
     <row r="798">
       <c r="A798" t="inlineStr">
         <is>
-          <t>SO2898674</t>
+          <t>SO3108910</t>
         </is>
       </c>
     </row>
     <row r="799">
       <c r="A799" t="inlineStr">
         <is>
-          <t>SO2898755</t>
+          <t>SO3108857</t>
         </is>
       </c>
     </row>
     <row r="800">
       <c r="A800" t="inlineStr">
         <is>
-          <t>SO2898754</t>
+          <t>SO3108853</t>
         </is>
       </c>
     </row>
     <row r="801">
       <c r="A801" t="inlineStr">
         <is>
-          <t>SO2898757</t>
+          <t>SO3109252</t>
         </is>
       </c>
     </row>
     <row r="802">
       <c r="A802" t="inlineStr">
         <is>
-          <t>SO2898812</t>
+          <t>SO3109109</t>
         </is>
       </c>
     </row>
     <row r="803">
       <c r="A803" t="inlineStr">
         <is>
-          <t>SO2961649</t>
+          <t>SO3134176</t>
         </is>
       </c>
     </row>
     <row r="804">
       <c r="A804" t="inlineStr">
         <is>
-          <t>SO2898909</t>
+          <t>SO3109231</t>
         </is>
       </c>
     </row>
     <row r="805">
       <c r="A805" t="inlineStr">
         <is>
-          <t>SO2898967</t>
+          <t>SO3109232</t>
         </is>
       </c>
     </row>
     <row r="806">
       <c r="A806" t="inlineStr">
         <is>
-          <t>SO2898945</t>
+          <t>SO3109180</t>
         </is>
       </c>
     </row>
     <row r="807">
       <c r="A807" t="inlineStr">
         <is>
-          <t>SO2899083</t>
+          <t>SO3109138</t>
         </is>
       </c>
     </row>
     <row r="808">
       <c r="A808" t="inlineStr">
         <is>
-          <t>SO2899168</t>
+          <t>SO3109311</t>
         </is>
       </c>
     </row>
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t>SO2899152</t>
+          <t>SO3109304</t>
         </is>
       </c>
     </row>
     <row r="810">
       <c r="A810" t="inlineStr">
         <is>
-          <t>SO2899300</t>
+          <t>SO3109341</t>
         </is>
       </c>
     </row>
     <row r="811">
       <c r="A811" t="inlineStr">
         <is>
-          <t>SO2899297</t>
+          <t>SO3109322</t>
         </is>
       </c>
     </row>
     <row r="812">
       <c r="A812" t="inlineStr">
         <is>
-          <t>SO2899394</t>
+          <t>SO3109453</t>
         </is>
       </c>
     </row>
     <row r="813">
       <c r="A813" t="inlineStr">
         <is>
-          <t>SO2899350</t>
+          <t>SO3109421</t>
         </is>
       </c>
     </row>
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t>SO2899370</t>
+          <t>SO3109422</t>
         </is>
       </c>
     </row>
     <row r="815">
       <c r="A815" t="inlineStr">
         <is>
-          <t>SO2899395</t>
+          <t>SO3109540</t>
         </is>
       </c>
     </row>
     <row r="816">
       <c r="A816" t="inlineStr">
         <is>
-          <t>SO2899366</t>
+          <t>SO3109820</t>
         </is>
       </c>
     </row>
     <row r="817">
       <c r="A817" t="inlineStr">
         <is>
-          <t>SO2969224</t>
+          <t>SO3109665</t>
         </is>
       </c>
     </row>
     <row r="818">
       <c r="A818" t="inlineStr">
         <is>
-          <t>SO2899520</t>
+          <t>SO3109477</t>
         </is>
       </c>
     </row>
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>SO2899519</t>
+          <t>SO3109504</t>
         </is>
       </c>
     </row>
     <row r="820">
       <c r="A820" t="inlineStr">
         <is>
-          <t>SO2948020</t>
+          <t>SO3109556</t>
         </is>
       </c>
     </row>
     <row r="821">
       <c r="A821" t="inlineStr">
         <is>
-          <t>SO2899632</t>
+          <t>SO3109646</t>
         </is>
       </c>
     </row>
     <row r="822">
       <c r="A822" t="inlineStr">
         <is>
-          <t>SO2899633</t>
+          <t>SO3109607</t>
         </is>
       </c>
     </row>
     <row r="823">
       <c r="A823" t="inlineStr">
         <is>
-          <t>SO2899636</t>
+          <t>SO3109718</t>
         </is>
       </c>
     </row>
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>SO2899747</t>
+          <t>SO3109676</t>
         </is>
       </c>
     </row>
     <row r="825">
       <c r="A825" t="inlineStr">
         <is>
-          <t>SO2899727</t>
+          <t>SO3109661</t>
         </is>
       </c>
     </row>
     <row r="826">
       <c r="A826" t="inlineStr">
         <is>
-          <t>SO2899742</t>
+          <t>SO3109687</t>
         </is>
       </c>
     </row>
     <row r="827">
       <c r="A827" t="inlineStr">
         <is>
-          <t>SO2899686</t>
+          <t>SO3109694</t>
         </is>
       </c>
     </row>
     <row r="828">
       <c r="A828" t="inlineStr">
         <is>
-          <t>SO2899741</t>
+          <t>SO3109769</t>
         </is>
       </c>
     </row>
     <row r="829">
       <c r="A829" t="inlineStr">
         <is>
-          <t>SO2899804</t>
+          <t>SO3109717</t>
         </is>
       </c>
     </row>
     <row r="830">
       <c r="A830" t="inlineStr">
         <is>
-          <t>SO2899779</t>
+          <t>SO3109730</t>
         </is>
       </c>
     </row>
     <row r="831">
       <c r="A831" t="inlineStr">
         <is>
-          <t>SO2899806</t>
+          <t>SO3109743</t>
         </is>
       </c>
     </row>
     <row r="832">
       <c r="A832" t="inlineStr">
         <is>
-          <t>SO2899770</t>
+          <t>SO3109781</t>
         </is>
       </c>
     </row>
     <row r="833">
       <c r="A833" t="inlineStr">
         <is>
-          <t>SO2899861</t>
+          <t>SO3109892</t>
         </is>
       </c>
     </row>
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>SO2899884</t>
+          <t>SO3109862</t>
         </is>
       </c>
     </row>
     <row r="835">
       <c r="A835" t="inlineStr">
         <is>
-          <t>SO2969942</t>
+          <t>SO3109891</t>
         </is>
       </c>
     </row>
     <row r="836">
       <c r="A836" t="inlineStr">
         <is>
-          <t>SO2899964</t>
+          <t>SO3109995</t>
         </is>
       </c>
     </row>
     <row r="837">
       <c r="A837" t="inlineStr">
         <is>
-          <t>SO2959689</t>
+          <t>SO3109882</t>
         </is>
       </c>
     </row>
     <row r="838">
       <c r="A838" t="inlineStr">
         <is>
-          <t>SO2899931</t>
+          <t>SO3109933</t>
         </is>
       </c>
     </row>
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t>SO2910954</t>
+          <t>SO3109923</t>
         </is>
       </c>
     </row>
     <row r="840">
       <c r="A840" t="inlineStr">
         <is>
-          <t>SO2974635</t>
+          <t>SO3109941</t>
         </is>
       </c>
     </row>
     <row r="841">
       <c r="A841" t="inlineStr">
         <is>
-          <t>SO2965190</t>
+          <t>SO3110714</t>
         </is>
       </c>
     </row>
     <row r="842">
       <c r="A842" t="inlineStr">
         <is>
-          <t>SO2967244</t>
+          <t>SO3109968</t>
         </is>
       </c>
     </row>
     <row r="843">
       <c r="A843" t="inlineStr">
         <is>
-          <t>SO2908916</t>
+          <t>SO3150784</t>
         </is>
       </c>
     </row>
     <row r="844">
       <c r="A844" t="inlineStr">
         <is>
-          <t>SO2974139</t>
+          <t>SO3120904</t>
         </is>
       </c>
     </row>
     <row r="845">
       <c r="A845" t="inlineStr">
         <is>
-          <t>SO2909612</t>
+          <t>SO3110038</t>
         </is>
       </c>
     </row>
     <row r="846">
       <c r="A846" t="inlineStr">
         <is>
-          <t>SO2928650</t>
+          <t>SO3110057</t>
         </is>
       </c>
     </row>
     <row r="847">
       <c r="A847" t="inlineStr">
         <is>
-          <t>SO2911083</t>
+          <t>SO3110060</t>
         </is>
       </c>
     </row>
     <row r="848">
       <c r="A848" t="inlineStr">
         <is>
-          <t>SO2904662</t>
+          <t>SO3110087</t>
         </is>
       </c>
     </row>
     <row r="849">
       <c r="A849" t="inlineStr">
         <is>
-          <t>SO2926360</t>
+          <t>SO3110017</t>
         </is>
       </c>
     </row>
     <row r="850">
       <c r="A850" t="inlineStr">
         <is>
-          <t>SO2904675</t>
+          <t>SO3110016</t>
         </is>
       </c>
     </row>
     <row r="851">
       <c r="A851" t="inlineStr">
         <is>
-          <t>SO2904729</t>
+          <t>SO3110106</t>
         </is>
       </c>
     </row>
     <row r="852">
       <c r="A852" t="inlineStr">
         <is>
-          <t>SO2904698</t>
+          <t>SO3110089</t>
         </is>
       </c>
     </row>
     <row r="853">
       <c r="A853" t="inlineStr">
         <is>
-          <t>SO2904714</t>
+          <t>SO3110166</t>
         </is>
       </c>
     </row>
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t>SO2904731</t>
+          <t>SO3110715</t>
         </is>
       </c>
     </row>
     <row r="855">
       <c r="A855" t="inlineStr">
         <is>
-          <t>SO2904717</t>
+          <t>SO3133802</t>
         </is>
       </c>
     </row>
     <row r="856">
       <c r="A856" t="inlineStr">
         <is>
-          <t>SO2904738</t>
+          <t>SO3110193</t>
         </is>
       </c>
     </row>
     <row r="857">
       <c r="A857" t="inlineStr">
         <is>
-          <t>SO2904740</t>
+          <t>SO3110295</t>
         </is>
       </c>
     </row>
     <row r="858">
       <c r="A858" t="inlineStr">
         <is>
-          <t>SO2904813</t>
+          <t>SO3110250</t>
         </is>
       </c>
     </row>
     <row r="859">
       <c r="A859" t="inlineStr">
         <is>
-          <t>SO2904822</t>
+          <t>SO3110210</t>
         </is>
       </c>
     </row>
     <row r="860">
       <c r="A860" t="inlineStr">
         <is>
-          <t>SO2904823</t>
+          <t>SO3110320</t>
         </is>
       </c>
     </row>
     <row r="861">
       <c r="A861" t="inlineStr">
         <is>
-          <t>SO2904859</t>
+          <t>SO3110306</t>
         </is>
       </c>
     </row>
     <row r="862">
       <c r="A862" t="inlineStr">
         <is>
-          <t>SO2904846</t>
+          <t>SO3110346</t>
         </is>
       </c>
     </row>
     <row r="863">
       <c r="A863" t="inlineStr">
         <is>
-          <t>SO2904875</t>
+          <t>SO3110344</t>
         </is>
       </c>
     </row>
     <row r="864">
       <c r="A864" t="inlineStr">
         <is>
-          <t>SO2904841</t>
+          <t>SO3111359</t>
         </is>
       </c>
     </row>
     <row r="865">
       <c r="A865" t="inlineStr">
         <is>
-          <t>SO2904935</t>
+          <t>SO3110378</t>
         </is>
       </c>
     </row>
     <row r="866">
       <c r="A866" t="inlineStr">
         <is>
-          <t>SO2904866</t>
+          <t>SO3110282</t>
         </is>
       </c>
     </row>
     <row r="867">
       <c r="A867" t="inlineStr">
         <is>
-          <t>SO2904977</t>
+          <t>SO3122480</t>
         </is>
       </c>
     </row>
     <row r="868">
       <c r="A868" t="inlineStr">
         <is>
-          <t>SO2904970</t>
+          <t>SO3110397</t>
         </is>
       </c>
     </row>
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t>SO2904969</t>
+          <t>SO3115208</t>
         </is>
       </c>
     </row>
     <row r="870">
       <c r="A870" t="inlineStr">
         <is>
-          <t>SO2905047</t>
+          <t>SO3110384</t>
         </is>
       </c>
     </row>
     <row r="871">
       <c r="A871" t="inlineStr">
         <is>
-          <t>SO2905072</t>
+          <t>SO3110423</t>
         </is>
       </c>
     </row>
     <row r="872">
       <c r="A872" t="inlineStr">
         <is>
-          <t>SO2998614</t>
+          <t>SO3126676</t>
         </is>
       </c>
     </row>
     <row r="873">
       <c r="A873" t="inlineStr">
         <is>
-          <t>SO2945956</t>
+          <t>SO3110463</t>
         </is>
       </c>
     </row>
     <row r="874">
       <c r="A874" t="inlineStr">
         <is>
-          <t>SO2909053</t>
+          <t>SO3116805</t>
         </is>
       </c>
     </row>
     <row r="875">
       <c r="A875" t="inlineStr">
         <is>
-          <t>SO2906761</t>
+          <t>SO3110528</t>
         </is>
       </c>
     </row>
     <row r="876">
       <c r="A876" t="inlineStr">
         <is>
-          <t>SO2908874</t>
+          <t>SO3110474</t>
         </is>
       </c>
     </row>
     <row r="877">
       <c r="A877" t="inlineStr">
         <is>
-          <t>SO2964133</t>
+          <t>SO3110889</t>
         </is>
       </c>
     </row>
     <row r="878">
       <c r="A878" t="inlineStr">
         <is>
-          <t>SO2909806</t>
+          <t>SO3111457</t>
         </is>
       </c>
     </row>
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t>SO2908663</t>
+          <t>SO3110578</t>
         </is>
       </c>
     </row>
     <row r="880">
       <c r="A880" t="inlineStr">
         <is>
-          <t>SO2911534</t>
+          <t>SO3110943</t>
         </is>
       </c>
     </row>
     <row r="881">
       <c r="A881" t="inlineStr">
         <is>
-          <t>SO2908516</t>
+          <t>SO3110608</t>
         </is>
       </c>
     </row>
     <row r="882">
       <c r="A882" t="inlineStr">
         <is>
-          <t>SO2908514</t>
+          <t>SO3110630</t>
         </is>
       </c>
     </row>
     <row r="883">
       <c r="A883" t="inlineStr">
         <is>
-          <t>SO2908559</t>
+          <t>SO3111137</t>
         </is>
       </c>
     </row>
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t>SO2919825</t>
+          <t>SO3110686</t>
         </is>
       </c>
     </row>
     <row r="885">
       <c r="A885" t="inlineStr">
         <is>
-          <t>SO2908710</t>
+          <t>SO3110718</t>
         </is>
       </c>
     </row>
     <row r="886">
       <c r="A886" t="inlineStr">
         <is>
-          <t>SO2908741</t>
+          <t>SO3114487</t>
         </is>
       </c>
     </row>
     <row r="887">
       <c r="A887" t="inlineStr">
         <is>
-          <t>SO2908680</t>
+          <t>SO3110725</t>
         </is>
       </c>
     </row>
     <row r="888">
       <c r="A888" t="inlineStr">
         <is>
-          <t>SO2908714</t>
+          <t>SO3110817</t>
         </is>
       </c>
     </row>
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t>SO2970583</t>
+          <t>SO3110783</t>
         </is>
       </c>
     </row>
     <row r="890">
       <c r="A890" t="inlineStr">
         <is>
-          <t>SO2908678</t>
+          <t>SO3110826</t>
         </is>
       </c>
     </row>
     <row r="891">
       <c r="A891" t="inlineStr">
         <is>
-          <t>SO2908798</t>
+          <t>SO3110819</t>
         </is>
       </c>
     </row>
     <row r="892">
       <c r="A892" t="inlineStr">
         <is>
-          <t>SO2908815</t>
+          <t>SO3110767</t>
         </is>
       </c>
     </row>
     <row r="893">
       <c r="A893" t="inlineStr">
         <is>
-          <t>SO2908909</t>
+          <t>SO3110832</t>
         </is>
       </c>
     </row>
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t>SO2908886</t>
+          <t>SO3110871</t>
         </is>
       </c>
     </row>
     <row r="895">
       <c r="A895" t="inlineStr">
         <is>
-          <t>SO2908980</t>
+          <t>SO3110894</t>
         </is>
       </c>
     </row>
     <row r="896">
       <c r="A896" t="inlineStr">
         <is>
-          <t>SO2908915</t>
+          <t>SO3111002</t>
         </is>
       </c>
     </row>
     <row r="897">
       <c r="A897" t="inlineStr">
         <is>
-          <t>SO2908935</t>
+          <t>SO3150758</t>
         </is>
       </c>
     </row>
     <row r="898">
       <c r="A898" t="inlineStr">
         <is>
-          <t>SO2908911</t>
+          <t>SO3111006</t>
         </is>
       </c>
     </row>
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t>SO2908956</t>
+          <t>SO3110947</t>
         </is>
       </c>
     </row>
     <row r="900">
       <c r="A900" t="inlineStr">
         <is>
-          <t>SO2909037</t>
+          <t>SO3111041</t>
         </is>
       </c>
     </row>
     <row r="901">
       <c r="A901" t="inlineStr">
         <is>
-          <t>SO2909107</t>
+          <t>SO3111021</t>
         </is>
       </c>
     </row>
     <row r="902">
       <c r="A902" t="inlineStr">
         <is>
-          <t>SO2909179</t>
+          <t>SO3111042</t>
         </is>
       </c>
     </row>
     <row r="903">
       <c r="A903" t="inlineStr">
         <is>
-          <t>SO2909155</t>
+          <t>SO3111030</t>
         </is>
       </c>
     </row>
     <row r="904">
       <c r="A904" t="inlineStr">
         <is>
-          <t>SO2909231</t>
+          <t>SO3111048</t>
         </is>
       </c>
     </row>
     <row r="905">
       <c r="A905" t="inlineStr">
         <is>
-          <t>SO2909268</t>
+          <t>SO3111166</t>
         </is>
       </c>
     </row>
     <row r="906">
       <c r="A906" t="inlineStr">
         <is>
-          <t>SO2909267</t>
+          <t>SO3111136</t>
         </is>
       </c>
     </row>
     <row r="907">
       <c r="A907" t="inlineStr">
         <is>
-          <t>SO2909378</t>
+          <t>SO3111184</t>
         </is>
       </c>
     </row>
     <row r="908">
       <c r="A908" t="inlineStr">
         <is>
-          <t>SO2909471</t>
+          <t>SO3111435</t>
         </is>
       </c>
     </row>
     <row r="909">
       <c r="A909" t="inlineStr">
         <is>
-          <t>SO2909535</t>
+          <t>SO3150752</t>
         </is>
       </c>
     </row>
     <row r="910">
       <c r="A910" t="inlineStr">
         <is>
-          <t>SO2909594</t>
+          <t>SO3111212</t>
         </is>
       </c>
     </row>
     <row r="911">
       <c r="A911" t="inlineStr">
         <is>
-          <t>SO2909629</t>
+          <t>SO3111242</t>
         </is>
       </c>
     </row>
     <row r="912">
       <c r="A912" t="inlineStr">
         <is>
-          <t>SO2909596</t>
+          <t>SO3111287</t>
         </is>
       </c>
     </row>
     <row r="913">
       <c r="A913" t="inlineStr">
         <is>
-          <t>SO2909615</t>
+          <t>SO3150749</t>
         </is>
       </c>
     </row>
     <row r="914">
       <c r="A914" t="inlineStr">
         <is>
-          <t>SO2909613</t>
+          <t>SO3111363</t>
         </is>
       </c>
     </row>
     <row r="915">
       <c r="A915" t="inlineStr">
         <is>
-          <t>SO2909638</t>
+          <t>SO3111377</t>
         </is>
       </c>
     </row>
     <row r="916">
       <c r="A916" t="inlineStr">
         <is>
-          <t>SO2909614</t>
+          <t>SO3111436</t>
         </is>
       </c>
     </row>
     <row r="917">
       <c r="A917" t="inlineStr">
         <is>
-          <t>SO2909611</t>
+          <t>SO3111503</t>
         </is>
       </c>
     </row>
     <row r="918">
       <c r="A918" t="inlineStr">
         <is>
-          <t>SO2909718</t>
+          <t>SO3111396</t>
         </is>
       </c>
     </row>
     <row r="919">
       <c r="A919" t="inlineStr">
         <is>
-          <t>SO2909737</t>
+          <t>SO3111399</t>
         </is>
       </c>
     </row>
     <row r="920">
       <c r="A920" t="inlineStr">
         <is>
-          <t>SO2909810</t>
+          <t>SO3111387</t>
         </is>
       </c>
     </row>
     <row r="921">
       <c r="A921" t="inlineStr">
         <is>
-          <t>SO2909854</t>
+          <t>SO3111437</t>
         </is>
       </c>
     </row>
     <row r="922">
       <c r="A922" t="inlineStr">
         <is>
-          <t>SO2909947</t>
+          <t>SO3111434</t>
         </is>
       </c>
     </row>
     <row r="923">
       <c r="A923" t="inlineStr">
         <is>
-          <t>SO2909988</t>
+          <t>SO3111445</t>
         </is>
       </c>
     </row>
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t>SO2910073</t>
+          <t>SO3150737</t>
         </is>
       </c>
     </row>
     <row r="925">
       <c r="A925" t="inlineStr">
         <is>
-          <t>SO2910074</t>
+          <t>SO3111464</t>
         </is>
       </c>
     </row>
     <row r="926">
       <c r="A926" t="inlineStr">
         <is>
-          <t>SO2910133</t>
+          <t>SO3111516</t>
         </is>
       </c>
     </row>
     <row r="927">
       <c r="A927" t="inlineStr">
         <is>
-          <t>SO2910181</t>
+          <t>SO3111517</t>
         </is>
       </c>
     </row>
     <row r="928">
       <c r="A928" t="inlineStr">
         <is>
-          <t>SO2942761</t>
+          <t>SO3111546</t>
         </is>
       </c>
     </row>
     <row r="929">
       <c r="A929" t="inlineStr">
         <is>
-          <t>SO2910516</t>
+          <t>SO3111592</t>
         </is>
       </c>
     </row>
     <row r="930">
       <c r="A930" t="inlineStr">
         <is>
-          <t>SO2910479</t>
+          <t>SO3111810</t>
         </is>
       </c>
     </row>
     <row r="931">
       <c r="A931" t="inlineStr">
         <is>
-          <t>SO2911286</t>
+          <t>SO3111674</t>
         </is>
       </c>
     </row>
     <row r="932">
       <c r="A932" t="inlineStr">
         <is>
-          <t>SO2917745</t>
+          <t>SO3111608</t>
         </is>
       </c>
     </row>
     <row r="933">
       <c r="A933" t="inlineStr">
         <is>
-          <t>SO2968091</t>
+          <t>SO3115735</t>
         </is>
       </c>
     </row>
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t>SO2990099</t>
+          <t>SO3116353</t>
         </is>
       </c>
     </row>
     <row r="935">
       <c r="A935" t="inlineStr">
         <is>
-          <t>SO2910793</t>
+          <t>SO3111728</t>
         </is>
       </c>
     </row>
     <row r="936">
       <c r="A936" t="inlineStr">
         <is>
-          <t>SO2910935</t>
+          <t>SO3111687</t>
         </is>
       </c>
     </row>
     <row r="937">
       <c r="A937" t="inlineStr">
         <is>
-          <t>SO2911017</t>
+          <t>SO3111673</t>
         </is>
       </c>
     </row>
     <row r="938">
       <c r="A938" t="inlineStr">
         <is>
-          <t>SO2911015</t>
+          <t>SO3111701</t>
         </is>
       </c>
     </row>
     <row r="939">
       <c r="A939" t="inlineStr">
         <is>
-          <t>SO2911016</t>
+          <t>SO3111785</t>
         </is>
       </c>
     </row>
     <row r="940">
       <c r="A940" t="inlineStr">
         <is>
-          <t>SO2911240</t>
+          <t>SO3111738</t>
         </is>
       </c>
     </row>
     <row r="941">
       <c r="A941" t="inlineStr">
         <is>
-          <t>SO2975958</t>
+          <t>SO3111831</t>
         </is>
       </c>
     </row>
     <row r="942">
       <c r="A942" t="inlineStr">
         <is>
-          <t>SO2911153</t>
+          <t>SO3111962</t>
         </is>
       </c>
     </row>
     <row r="943">
       <c r="A943" t="inlineStr">
         <is>
-          <t>SO2911296</t>
+          <t>SO3119531</t>
         </is>
       </c>
     </row>
     <row r="944">
       <c r="A944" t="inlineStr">
         <is>
-          <t>SO2911239</t>
+          <t>SO3111945</t>
         </is>
       </c>
     </row>
     <row r="945">
       <c r="A945" t="inlineStr">
         <is>
-          <t>SO2911320</t>
+          <t>SO3111917</t>
         </is>
       </c>
     </row>
     <row r="946">
       <c r="A946" t="inlineStr">
         <is>
-          <t>SO2911350</t>
+          <t>SO3111967</t>
         </is>
       </c>
     </row>
     <row r="947">
       <c r="A947" t="inlineStr">
         <is>
-          <t>SO2911425</t>
+          <t>SO3111988</t>
         </is>
       </c>
     </row>
     <row r="948">
       <c r="A948" t="inlineStr">
         <is>
-          <t>SO2911447</t>
+          <t>SO3115777</t>
         </is>
       </c>
     </row>
     <row r="949">
       <c r="A949" t="inlineStr">
         <is>
-          <t>SO2911445</t>
+          <t>SO3112130</t>
         </is>
       </c>
     </row>
     <row r="950">
       <c r="A950" t="inlineStr">
         <is>
-          <t>SO2911498</t>
+          <t>SO3112363</t>
         </is>
       </c>
     </row>
     <row r="951">
       <c r="A951" t="inlineStr">
         <is>
-          <t>SO2911523</t>
+          <t>SO3112434</t>
         </is>
       </c>
     </row>
     <row r="952">
       <c r="A952" t="inlineStr">
         <is>
-          <t>SO2911594</t>
+          <t>SO3112432</t>
         </is>
       </c>
     </row>
     <row r="953">
       <c r="A953" t="inlineStr">
         <is>
-          <t>SO2911530</t>
+          <t>SO3116873</t>
         </is>
       </c>
     </row>
     <row r="954">
       <c r="A954" t="inlineStr">
         <is>
-          <t>SO2940503</t>
+          <t>SO3112570</t>
         </is>
       </c>
     </row>
     <row r="955">
       <c r="A955" t="inlineStr">
         <is>
-          <t>SO2963608</t>
+          <t>SO3144465</t>
         </is>
       </c>
     </row>
     <row r="956">
       <c r="A956" t="inlineStr">
         <is>
-          <t>SO2945057</t>
+          <t>SO3112530</t>
         </is>
       </c>
     </row>
     <row r="957">
       <c r="A957" t="inlineStr">
         <is>
-          <t>SO2937162</t>
+          <t>SO3112523</t>
         </is>
       </c>
     </row>
     <row r="958">
       <c r="A958" t="inlineStr">
         <is>
-          <t>SO2969478</t>
+          <t>SO3112601</t>
         </is>
       </c>
     </row>
     <row r="959">
       <c r="A959" t="inlineStr">
         <is>
-          <t>SO2968175</t>
+          <t>SO3112704</t>
         </is>
       </c>
     </row>
     <row r="960">
       <c r="A960" t="inlineStr">
         <is>
-          <t>SO2926941</t>
+          <t>SO3112649</t>
         </is>
       </c>
     </row>
     <row r="961">
       <c r="A961" t="inlineStr">
         <is>
-          <t>SO2942826</t>
+          <t>SO3112621</t>
         </is>
       </c>
     </row>
     <row r="962">
       <c r="A962" t="inlineStr">
         <is>
-          <t>SO2953461</t>
+          <t>SO3112633</t>
         </is>
       </c>
     </row>
     <row r="963">
       <c r="A963" t="inlineStr">
         <is>
-          <t>SO2970503</t>
+          <t>SO3112632</t>
         </is>
       </c>
     </row>
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t>SO2919408</t>
+          <t>SO3112775</t>
         </is>
       </c>
     </row>
     <row r="965">
       <c r="A965" t="inlineStr">
         <is>
-          <t>SO2942805</t>
+          <t>SO3112741</t>
         </is>
       </c>
     </row>
     <row r="966">
       <c r="A966" t="inlineStr">
         <is>
-          <t>SO2962652</t>
+          <t>SO3112778</t>
         </is>
       </c>
     </row>
     <row r="967">
       <c r="A967" t="inlineStr">
         <is>
-          <t>SO2925269</t>
+          <t>SO3112849</t>
         </is>
       </c>
     </row>
     <row r="968">
       <c r="A968" t="inlineStr">
         <is>
-          <t>SO2942043</t>
+          <t>SO3112898</t>
         </is>
       </c>
     </row>
     <row r="969">
       <c r="A969" t="inlineStr">
         <is>
-          <t>SO2922497</t>
+          <t>SO3112847</t>
         </is>
       </c>
     </row>
     <row r="970">
       <c r="A970" t="inlineStr">
         <is>
-          <t>SO2941106</t>
+          <t>SO3113212</t>
         </is>
       </c>
     </row>
     <row r="971">
       <c r="A971" t="inlineStr">
         <is>
-          <t>SO2921337</t>
+          <t>SO3112897</t>
         </is>
       </c>
     </row>
     <row r="972">
       <c r="A972" t="inlineStr">
         <is>
-          <t>SO2932733</t>
+          <t>SO3112895</t>
         </is>
       </c>
     </row>
     <row r="973">
       <c r="A973" t="inlineStr">
         <is>
-          <t>SO2933225</t>
+          <t>SO3113033</t>
         </is>
       </c>
     </row>
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t>SO2961737</t>
+          <t>SO3112958</t>
         </is>
       </c>
     </row>
     <row r="975">
       <c r="A975" t="inlineStr">
         <is>
-          <t>SO2979220</t>
+          <t>SO3113115</t>
         </is>
       </c>
     </row>
     <row r="976">
       <c r="A976" t="inlineStr">
         <is>
-          <t>SO2922190</t>
+          <t>SO3113031</t>
         </is>
       </c>
     </row>
     <row r="977">
       <c r="A977" t="inlineStr">
         <is>
-          <t>SO2922351</t>
+          <t>SO3113140</t>
         </is>
       </c>
     </row>
     <row r="978">
       <c r="A978" t="inlineStr">
         <is>
-          <t>SO2948385</t>
+          <t>SO3113158</t>
         </is>
       </c>
     </row>
     <row r="979">
       <c r="A979" t="inlineStr">
         <is>
-          <t>SO2992244</t>
+          <t>SO3115579</t>
         </is>
       </c>
     </row>
     <row r="980">
       <c r="A980" t="inlineStr">
         <is>
-          <t>SO2922638</t>
+          <t>SO3113087</t>
         </is>
       </c>
     </row>
     <row r="981">
       <c r="A981" t="inlineStr">
         <is>
-          <t>SO2922592</t>
+          <t>SO3113139</t>
         </is>
       </c>
     </row>
     <row r="982">
       <c r="A982" t="inlineStr">
         <is>
-          <t>SO2935010</t>
+          <t>SO3116155</t>
         </is>
       </c>
     </row>
     <row r="983">
       <c r="A983" t="inlineStr">
         <is>
-          <t>SO2961257</t>
+          <t>SO3113171</t>
         </is>
       </c>
     </row>
     <row r="984">
       <c r="A984" t="inlineStr">
         <is>
-          <t>SO2927214</t>
+          <t>SO3113363</t>
         </is>
       </c>
     </row>
     <row r="985">
       <c r="A985" t="inlineStr">
         <is>
-          <t>SO2927219</t>
+          <t>SO3113366</t>
         </is>
       </c>
     </row>
     <row r="986">
       <c r="A986" t="inlineStr">
         <is>
-          <t>SO2934780</t>
+          <t>SO3113296</t>
         </is>
       </c>
     </row>
     <row r="987">
       <c r="A987" t="inlineStr">
         <is>
-          <t>SO2996005</t>
+          <t>SO3113321</t>
         </is>
       </c>
     </row>
     <row r="988">
       <c r="A988" t="inlineStr">
         <is>
-          <t>SO2936463</t>
+          <t>SO3121426</t>
         </is>
       </c>
     </row>
     <row r="989">
       <c r="A989" t="inlineStr">
         <is>
-          <t>SO2924311</t>
+          <t>SO3113489</t>
         </is>
       </c>
     </row>
     <row r="990">
       <c r="A990" t="inlineStr">
         <is>
-          <t>SO2925024</t>
+          <t>SO3113467</t>
         </is>
       </c>
     </row>
     <row r="991">
       <c r="A991" t="inlineStr">
         <is>
-          <t>SO2952699</t>
+          <t>SO3113395</t>
         </is>
       </c>
     </row>
     <row r="992">
       <c r="A992" t="inlineStr">
         <is>
-          <t>SO2925400</t>
+          <t>SO3113428</t>
         </is>
       </c>
     </row>
     <row r="993">
       <c r="A993" t="inlineStr">
         <is>
-          <t>SO2926955</t>
+          <t>SO3113461</t>
         </is>
       </c>
     </row>
     <row r="994">
       <c r="A994" t="inlineStr">
         <is>
-          <t>SO2935889</t>
+          <t>SO3113469</t>
         </is>
       </c>
     </row>
     <row r="995">
       <c r="A995" t="inlineStr">
         <is>
-          <t>SO2926119</t>
+          <t>SO3113453</t>
         </is>
       </c>
     </row>
     <row r="996">
       <c r="A996" t="inlineStr">
         <is>
-          <t>SO2945833</t>
+          <t>SO3113588</t>
         </is>
       </c>
     </row>
     <row r="997">
       <c r="A997" t="inlineStr">
         <is>
-          <t>SO2934666</t>
+          <t>SO3113587</t>
         </is>
       </c>
     </row>
     <row r="998">
       <c r="A998" t="inlineStr">
         <is>
-          <t>SO3006609</t>
+          <t>SO3113598</t>
         </is>
       </c>
     </row>
     <row r="999">
       <c r="A999" t="inlineStr">
         <is>
-          <t>SO2967205</t>
+          <t>SO3113611</t>
         </is>
       </c>
     </row>
     <row r="1000">
       <c r="A1000" t="inlineStr">
         <is>
-          <t>SO2930917</t>
+          <t>SO3113723</t>
         </is>
       </c>
     </row>
